--- a/biology/Médecine/Amine_Benyamina/Amine_Benyamina.xlsx
+++ b/biology/Médecine/Amine_Benyamina/Amine_Benyamina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amine Benyamina, né en 1966 à Oran (Algérie), est spécialiste en addictologie et chef du service de psychiatrie et d'addictologie de l'hôpital Paul-Brousse (AP-HP). Il est président de la Fédération française d'addictologie.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amine Benyamina obtient un diplôme de médecin psychiatre en Algérie. Il quitte ce pays à 30 ans pour rejoindre la France. Médecin à diplôme étranger, il subit un statut défavorable et milite pour une meilleure reconnaissance, allant jusqu'à s'enchainer aux grilles de l'ordre national des médecins en 1999[réf. nécessaire]. 
-Pris sous l'aile du Pr Michel Raynaud, il devient praticien hospitalier à l'hôpital Paul-Brousse de Villejuif, puis professeur de psychiatrie, il prend position pour une meilleure prévention des risques liés à la consommation d'alcool chez les jeunes[1],[2].
-Il défend également une modification de la réglementation sur le cannabis thérapeutique[3].
+Pris sous l'aile du Pr Michel Raynaud, il devient praticien hospitalier à l'hôpital Paul-Brousse de Villejuif, puis professeur de psychiatrie, il prend position pour une meilleure prévention des risques liés à la consommation d'alcool chez les jeunes,.
+Il défend également une modification de la réglementation sur le cannabis thérapeutique.
 Fondateur du congrès international de l’Albatros[réf. souhaitée], consacré à l'addictologie chaque année à Paris. Il est l’auteur de nombreux articles scientifiques, ouvrages à vocation académique et pédagogique, ainsi que d'ouvrages plus grand public traitant des questions d’addictions.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amine Benyamina et Marie-Pierre Samitier, Comment l’alcool détruit la jeunesse, Paris, Éditions Albin Michel, 2017, 216 p. (ISBN 978-2-226-39185-8)</t>
         </is>
